--- a/data/process_02/inputData.xlsx
+++ b/data/process_02/inputData.xlsx
@@ -7,10 +7,63 @@
     <workbookView windowWidth="23040" windowHeight="9335"/>
   </bookViews>
   <sheets>
-    <sheet name="P_01" sheetId="1" r:id="rId1"/>
+    <sheet name="P_02" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+  <si>
+    <t>Material Number</t>
+  </si>
+  <si>
+    <t>Production Plant</t>
+  </si>
+  <si>
+    <t>Process Order Type</t>
+  </si>
+  <si>
+    <t>Total Qty</t>
+  </si>
+  <si>
+    <t>Start Date</t>
+  </si>
+  <si>
+    <t>Item Ok</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>Date of Manufacture</t>
+  </si>
+  <si>
+    <t>Warehouse No.</t>
+  </si>
+  <si>
+    <t>Plant</t>
+  </si>
+  <si>
+    <t>Override</t>
+  </si>
+  <si>
+    <t>YBM2</t>
+  </si>
+  <si>
+    <t>currentDate</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>A01</t>
+  </si>
+  <si>
+    <t>01578</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21,7 +74,7 @@
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30,6 +83,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -38,6 +114,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -53,20 +137,34 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -75,17 +173,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -99,6 +204,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -107,52 +228,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,24 +241,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,49 +251,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,145 +441,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -395,6 +477,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -414,15 +514,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -434,24 +525,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -473,6 +546,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -484,153 +566,160 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -950,14 +1039,109 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="1" width="19.8888888888889" customWidth="1"/>
+    <col min="2" max="2" width="15.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="18.2222222222222" customWidth="1"/>
+    <col min="4" max="4" width="9.22222222222222" customWidth="1"/>
+    <col min="8" max="8" width="19.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="16.2222222222222" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="16" customWidth="1"/>
+    <col min="15" max="15" width="13.4444444444444" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2">
+        <v>11066</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="2">
+        <v>10</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1000</v>
+      </c>
+      <c r="L2" s="2">
+        <v>7453</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
